--- a/microsoft-365/downloads/Microsoft-365-BDM-security-recommendations-spreadsheet.xlsx
+++ b/microsoft-365/downloads/Microsoft-365-BDM-security-recommendations-spreadsheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22210"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1349549-F729-4BBB-8661-C7D00ADCB790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44887384-6726-4ED8-8BF4-260AD6ABA8D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>Reduce the number of global administrator accounts accounts to less than five</t>
   </si>
   <si>
-    <t xml:space="preserve">Most organizations have more global administrator accounts than they need. We recommend you create accounts with minimal permissions needed to perform the required admin operations and ensure the number of Global Admins in the tenant are at a minimum. Reduce the number of Office 365 global administrator accounts and Azure AD global administrator accounts. </t>
-  </si>
-  <si>
     <t>Add or delete users using Azure Active Directory</t>
   </si>
   <si>
@@ -295,26 +292,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Because most admin activities require admin privileges only for a limited time frame, we recommend using Privileged Identity Management and Just in Time access methodology to assign admin privileges to an account and to put time limits on the access. For example, someone can be given Global Admin privileges for an hour to perform their changes and then automatically it is reverted/removed.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implement privileged access management in Office 365 to manage granular access control over privileged admin tasks in Office 365.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">PAWs are disconnected, secure workstations used by critical adminsfor the sole purpose of administering critical systems and services. Highly effective in protecting critical admin accounts, assets and services. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To prevent pivoting from on-prem to cloud and escalation of privileges, avoid assigning admin privileges in Office 365 to on-prem admin accounts.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service accounts may be set to password never expire and not monitoring actively and hence we strongly recommend avoiding assigning admin roles to service accounts. Check to make sure the AADConnect and ADFS services accounts are not Global Admins by default.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unless there is a specific user case to assign licenses to admin accounts, all other admin accounts do not need a license assigned to them and should be removed if already assigned.
 </t>
   </si>
@@ -332,10 +313,6 @@
   </si>
   <si>
     <t xml:space="preserve">If you've configured one or more custom domains for your Office 365 or Microsoft 365 environment, you can configure targeted anti-phishing protection. ATP anti-phishing protection, part of Office 365 Advanced Threat Protection, can help protect your organization from malicious impersonation-based phishing attacks and other phishing attacks. If you haven't configured a custom domain, you do not need to do this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ransomware takes away access to your data by encrypting files or locking computer screens. It then attempts to extort money from victims by asking for "ransom," usually in form of cryptocurrencies like Bitcoin, in exchange for returning access to your data. You can help defend against ransomware by creating one or more mail flow rules to block file extensions that are commonly used for ransomware, or to warn users who receive these attachments in email.
 </t>
   </si>
   <si>
@@ -378,14 +355,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Remote PowerShell is mainly used by Admins to access Office 365 services for administrative purposes or programmatic API access. We recommended disabling this option for non-Admin users to avoid reconnaissance unless they have a business requirement to access it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POP, IMAP, and SMTP are very old protocols which most organizations currently do no use. We recommend disabling these protocols for all users and enabling them only for accounts which need them as an exception. You can disable POP, IMAP, and SMTP protocols within Exchange Online or create an Exchange authentication policy which disables Basic authentication for these.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">If you don’t have the licensing required to implement the recommended conditional access policies, at a minimum require multi-factor authentication for all users.
 </t>
   </si>
@@ -395,10 +364,6 @@
   </si>
   <si>
     <t xml:space="preserve">One of the most common data exfiltration methods is by setting forwarding using Inbox rules. It is recommendation you disable External email forwarding through Inbox rules globally and allow forwarding based on access or known domains.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By default external Anonymous calendar sharing is allowed. Disable this option potential leaks of sensitive information. 
 </t>
   </si>
   <si>
@@ -541,6 +506,38 @@
   <si>
     <t xml:space="preserve">Create a conditional access rule to block all users, with the exception of admins.
 </t>
+  </si>
+  <si>
+    <t>As most admin activities require admin privileges only for a limited time frame, we recommend using Privileged Identity Management and Just in Time access methodology to assign admin privileges to an account and to put time limits on the access. For example, someone can be given Global Admin privileges for an hour to perform their changes and then automatically it is reverted/removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To prevent pivoting from on-premise to cloud and escalation of privileges, avoid assigning admin privileges in Office 365 to on-premise admin accounts.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service accounts may be set to password never expire and not monitored actively and hence we strongly recommend avoiding assigning admin roles to service accounts. Check to make sure the AADConnect and ADFS services accounts are not Global Admins by default.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POP, IMAP, and SMTP are very old protocols that most organizations currently do no use. We recommend disabling these protocols for all users and enabling them only for accounts that need them as an exception. You can disable POP, IMAP, and SMTP protocols within Exchange Online or create an Exchange authentication policy which disables Basic authentication for these.
+</t>
+  </si>
+  <si>
+    <t>Ransomware takes away access to your data by encrypting files or locking computer screens. It then attempts to extort money from victims by asking for "ransom," usually in the form of cryptocurrencies like Bitcoin, in exchange for returning access to your data. You can help defend against ransomware by creating one or more mail flow rules to block file extensions that are commonly used for ransomware, or to warn users who receive these attachments in email.</t>
+  </si>
+  <si>
+    <t>Remote PowerShell is mainly used by Admins to access Office 365 services for administrative purposes or programmatic API access. We recommend disabling this option for non-Admin users to avoid reconnaissance unless they have a business requirement to access it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By default external Anonymous calendar sharing is allowed. Disable this option to avoid potential leaks of sensitive information. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAWs are disconnected, secure workstations used by critical admins for the sole purpose of administering critical systems and services. These are highly effective in protecting critical admin accounts, assets, and services. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most organizations have more global administrator accounts than they need. We recommend you create accounts with the minimum permissions needed to perform the required admin operations. Also ensure the number of Global Admins in the tenant is at a minimum. Reduce the number of Office 365 global administrator accounts and Azure AD global administrator accounts. 	</t>
   </si>
 </sst>
 </file>
@@ -662,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -713,10 +710,16 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -724,6 +727,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Segoe Pro"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -748,31 +776,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Segoe Pro"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1001,10 +1004,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72A5236B-35AA-43AC-A3FF-A7FE4B3B9395}" name="Table1" displayName="Table1" ref="A2:F46" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A2:F46" xr:uid="{BA3C13D0-4099-4115-B903-79D0F88E3D07}"/>
@@ -1013,8 +1012,8 @@
     <tableColumn id="2" xr3:uid="{192E1AAC-0276-4FF2-BE98-76C8CD93AB5D}" name="Features to be enabled" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{35836231-3722-4CFC-8212-13314F53A499}" name="Licensing" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{9D19694F-A1E0-40F8-A8B1-817064340FC2}" name="Category/area" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{8AC271DE-325E-439A-9F36-A2609CB357FF}" name="Notes" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D528EE57-A038-4EC6-BB90-C1E29370EBF8}" name="Reference content" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{8AC271DE-325E-439A-9F36-A2609CB357FF}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D528EE57-A038-4EC6-BB90-C1E29370EBF8}" name="Reference content" dataDxfId="1" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1323,23 +1322,23 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="29" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="2" max="2" width="41.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="63.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="118.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1364,12 +1363,12 @@
         <v>13</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="89.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="79.2">
       <c r="A3" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
@@ -1380,16 +1379,16 @@
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>87</v>
+      <c r="E3" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="89.25">
+    <row r="4" spans="1:6" ht="79.2">
       <c r="A4" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>15</v>
@@ -1400,16 +1399,16 @@
       <c r="D4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>88</v>
+      <c r="E4" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25">
+    <row r="5" spans="1:6" ht="39.6">
       <c r="A5" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1420,16 +1419,16 @@
       <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>89</v>
+      <c r="E5" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51">
+    <row r="6" spans="1:6" ht="52.8">
       <c r="A6" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>5</v>
@@ -1440,16 +1439,16 @@
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>90</v>
+      <c r="E6" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="38.25">
+    <row r="7" spans="1:6" ht="52.8">
       <c r="A7" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>2</v>
@@ -1460,16 +1459,16 @@
       <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>91</v>
+      <c r="E7" s="20" t="s">
+        <v>133</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63.75">
+    <row r="8" spans="1:6" ht="66">
       <c r="A8" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>3</v>
@@ -1480,16 +1479,16 @@
       <c r="D8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>92</v>
+      <c r="E8" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51">
+    <row r="9" spans="1:6" ht="52.8">
       <c r="A9" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -1500,16 +1499,16 @@
       <c r="D9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>93</v>
+      <c r="E9" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="89.25">
+    <row r="10" spans="1:6" ht="92.4">
       <c r="A10" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1518,18 +1517,18 @@
         <v>0</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="76.5">
+    <row r="11" spans="1:6" ht="79.2">
       <c r="A11" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>55</v>
@@ -1540,35 +1539,35 @@
       <c r="D11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>56</v>
+      <c r="E11" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="38.25">
+    <row r="12" spans="1:6" ht="39.6">
       <c r="A12" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="E12" s="19"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="38.25">
+    <row r="13" spans="1:6" ht="39.6">
       <c r="A13" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>0</v>
@@ -1576,14 +1575,14 @@
       <c r="D13" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="51">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="52.8">
       <c r="A14" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>46</v>
@@ -1594,16 +1593,16 @@
       <c r="D14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>109</v>
+      <c r="E14" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="51">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="52.8">
       <c r="A15" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>20</v>
@@ -1614,16 +1613,16 @@
       <c r="D15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>95</v>
+      <c r="E15" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="76.5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="79.2">
       <c r="A16" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>21</v>
@@ -1632,18 +1631,18 @@
         <v>0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>96</v>
+        <v>126</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="89.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="92.4">
       <c r="A17" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>22</v>
@@ -1652,18 +1651,18 @@
         <v>8</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>97</v>
+        <v>126</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="102">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="92.4">
       <c r="A18" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>23</v>
@@ -1672,18 +1671,18 @@
         <v>0</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>98</v>
+        <v>126</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="52.8">
       <c r="A19" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>24</v>
@@ -1692,18 +1691,18 @@
         <v>8</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>99</v>
+        <v>126</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="63.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="66">
       <c r="A20" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
@@ -1712,18 +1711,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="76.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="79.2">
       <c r="A21" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
@@ -1732,18 +1731,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>127</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="38.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="39.6">
       <c r="A22" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
@@ -1752,74 +1751,74 @@
         <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="38.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="39.6">
       <c r="A23" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="E23" s="19"/>
       <c r="F23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="38.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="39.6">
       <c r="A24" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="E24" s="19"/>
       <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="63.75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="66">
       <c r="A25" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="63.75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="66">
       <c r="A26" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
@@ -1828,18 +1827,18 @@
         <v>0</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="63.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="52.8">
       <c r="A27" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>19</v>
@@ -1848,38 +1847,38 @@
         <v>0</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="38.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="39.6">
       <c r="A28" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="102">
+    <row r="29" spans="1:6" ht="105.6">
       <c r="A29" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>28</v>
@@ -1890,16 +1889,16 @@
       <c r="D29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>110</v>
+      <c r="E29" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="63.75">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="66">
       <c r="A30" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>29</v>
@@ -1908,18 +1907,18 @@
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="38.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="39.6">
       <c r="A31" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>30</v>
@@ -1928,18 +1927,18 @@
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>112</v>
+        <v>125</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="102">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="92.4">
       <c r="A32" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>31</v>
@@ -1948,18 +1947,18 @@
         <v>0</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>113</v>
+        <v>125</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="76.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="66">
       <c r="A33" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>32</v>
@@ -1968,18 +1967,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>125</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="140.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="132">
       <c r="A34" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>33</v>
@@ -1988,36 +1987,36 @@
         <v>8</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="38.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="39.6">
       <c r="A35" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="E35" s="20"/>
       <c r="F35" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="38.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="39.6">
       <c r="A36" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>34</v>
@@ -2026,21 +2025,21 @@
         <v>8</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="25.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="26.4">
       <c r="A37" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>0</v>
@@ -2048,14 +2047,14 @@
       <c r="D37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="51">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="52.8">
       <c r="A38" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -2066,16 +2065,16 @@
       <c r="D38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>117</v>
+      <c r="E38" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="52.8">
       <c r="A39" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>40</v>
@@ -2086,16 +2085,16 @@
       <c r="D39" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>118</v>
+      <c r="E39" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="63.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="66">
       <c r="A40" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>42</v>
@@ -2106,16 +2105,16 @@
       <c r="D40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>119</v>
+      <c r="E40" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="63.75">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="66">
       <c r="A41" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>43</v>
@@ -2126,50 +2125,50 @@
       <c r="D41" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>120</v>
+      <c r="E41" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="51">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="52.8">
       <c r="A42" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="52.8">
       <c r="A43" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="8"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="39.6">
       <c r="A44" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>45</v>
@@ -2178,16 +2177,16 @@
       <c r="D44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>123</v>
+      <c r="E44" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="51">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="52.8">
       <c r="A45" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>38</v>
@@ -2198,16 +2197,16 @@
       <c r="D45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>124</v>
+      <c r="E45" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="60" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>39</v>
@@ -2218,20 +2217,20 @@
       <c r="D46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>125</v>
+      <c r="E46" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="9"/>
